--- a/data/financial_statements/socf/MRNA.xlsx
+++ b/data/financial_statements/socf/MRNA.xlsx
@@ -14,9 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -122,9 +185,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,75 +544,75 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>42735</v>
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1043000000</v>
@@ -622,23 +679,23 @@
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>113000000</v>
+        <v>119000000</v>
       </c>
       <c r="C3">
-        <v>76000000</v>
+        <v>87000000</v>
       </c>
       <c r="D3">
-        <v>79000000</v>
+        <v>97000000</v>
       </c>
       <c r="E3">
-        <v>78000000</v>
+        <v>99000000</v>
       </c>
       <c r="F3">
-        <v>70000000</v>
+        <v>90000000</v>
       </c>
       <c r="G3">
         <v>77000000</v>
@@ -690,8 +747,8 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B4">
         <v>-6000000</v>
@@ -752,8 +809,8 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B5">
         <v>-4000000</v>
@@ -814,8 +871,8 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B6">
         <v>-156000000</v>
@@ -843,8 +900,8 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B7">
         <v>145000000</v>
@@ -905,23 +962,23 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>145000000</v>
+        <v>49000000</v>
       </c>
       <c r="C8">
-        <v>-21000000</v>
+        <v>191000000</v>
       </c>
       <c r="D8">
-        <v>-35000000</v>
+        <v>114000000</v>
       </c>
       <c r="E8">
-        <v>178000000</v>
+        <v>389000000</v>
       </c>
       <c r="F8">
-        <v>-18000000</v>
+        <v>233000000</v>
       </c>
       <c r="G8">
         <v>82000000</v>
@@ -967,8 +1024,8 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
         <v>-283000000</v>
@@ -993,23 +1050,23 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>-744000000</v>
+        <v>-655000000</v>
       </c>
       <c r="C10">
-        <v>-1467000000</v>
+        <v>-1246000000</v>
       </c>
       <c r="D10">
-        <v>-1320000000</v>
+        <v>-1184000000</v>
       </c>
       <c r="E10">
-        <v>-2072000000</v>
+        <v>-1834000000</v>
       </c>
       <c r="F10">
-        <v>477000000</v>
+        <v>871000000</v>
       </c>
       <c r="G10">
         <v>-277000000</v>
@@ -1055,8 +1112,8 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="Q11">
         <v>73456000</v>
@@ -1069,20 +1126,20 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>260000000</v>
+        <v>252000000</v>
       </c>
       <c r="C12">
-        <v>313000000</v>
+        <v>304000000</v>
       </c>
       <c r="D12">
-        <v>2773000000</v>
+        <v>2763000000</v>
       </c>
       <c r="E12">
-        <v>3301000000</v>
+        <v>3310000000</v>
       </c>
       <c r="F12">
         <v>3276000000</v>
@@ -1137,8 +1194,8 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B13">
         <v>-89000000</v>
@@ -1205,8 +1262,8 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1219,8 +1276,8 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B15">
         <v>1034000000</v>
@@ -1281,8 +1338,8 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1301,8 +1358,8 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B17">
         <v>945000000</v>
@@ -1369,8 +1426,8 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B18">
         <v>-54000000</v>
@@ -1382,7 +1439,7 @@
         <v>-41000000</v>
       </c>
       <c r="E18">
-        <v>-35000000</v>
+        <v>-140000000</v>
       </c>
       <c r="F18">
         <v>-34000000</v>
@@ -1437,8 +1494,8 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B19">
         <v>-995000000</v>
@@ -1499,8 +1556,8 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1516,8 +1573,8 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1530,23 +1587,23 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B22">
-        <v>97000000</v>
+        <v>-46000000</v>
       </c>
       <c r="C22">
-        <v>76000000</v>
+        <v>-46000000</v>
       </c>
       <c r="D22">
-        <v>62000000</v>
+        <v>-31000000</v>
       </c>
       <c r="E22">
         <v>58000000</v>
       </c>
       <c r="F22">
-        <v>60000000</v>
+        <v>-34000000</v>
       </c>
       <c r="G22">
         <v>-60000000</v>
@@ -1595,20 +1652,20 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>-1049000000</v>
+        <v>-1041000000</v>
       </c>
       <c r="C23">
-        <v>-1336000000</v>
+        <v>-1327000000</v>
       </c>
       <c r="D23">
-        <v>-652000000</v>
+        <v>-642000000</v>
       </c>
       <c r="E23">
-        <v>-864000000</v>
+        <v>-873000000</v>
       </c>
       <c r="F23">
         <v>-2000000</v>
@@ -1663,8 +1720,8 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -1677,8 +1734,8 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B25">
         <v>156000000</v>
@@ -1745,8 +1802,8 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1813,8 +1870,8 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B27">
         <v>156000000</v>
@@ -1881,8 +1938,8 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B28">
         <v>70000000</v>
@@ -1943,8 +2000,8 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2011,8 +2068,8 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B30">
         <v>-0.1554</v>
@@ -2073,8 +2130,8 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B31">
         <v>-904000000</v>
@@ -2141,8 +2198,8 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B32">
         <v>1034000000</v>
@@ -2209,8 +2266,8 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B33">
         <v>-995000000</v>
@@ -2277,8 +2334,8 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B34">
         <v>-995000000</v>
